--- a/T41_V012_Files_01-15-24/T41_V012_BOMs/Source Files/T41_RF_Board_BOM_V012.6_07-19-24.xlsx
+++ b/T41_V012_Files_01-15-24/T41_V012_BOMs/Source Files/T41_RF_Board_BOM_V012.6_07-19-24.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dad\Documents\GitHub\T41\T41_V012_Files_01-15-24\T41_V012_BOMs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dad\Documents\GitHub\T41\T41_V012_Files_01-15-24\T41_V012_BOMs\Source Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B95EEA2A-6526-475F-9546-93E24FAF2E75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F433E05-66C8-4F4B-B71D-5A7672C5868E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -382,9 +382,6 @@
     <t>Power Inductors - SMD 1.5  UH  20%</t>
   </si>
   <si>
-    <t>10uH 20% SMD 1206 Inductor</t>
-  </si>
-  <si>
     <t>L11, L12, L13</t>
   </si>
   <si>
@@ -1133,6 +1130,9 @@
   </si>
   <si>
     <t>581-12065C101KAT2A</t>
+  </si>
+  <si>
+    <t>10uH 20% SMD 2424 Inductor</t>
   </si>
 </sst>
 </file>
@@ -1793,7 +1793,7 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D13" s="4">
         <f>'Board As Second RX'!A36</f>
@@ -1817,7 +1817,9 @@
   </sheetPr>
   <dimension ref="A1:L63"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1976,13 +1978,13 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G5" s="11">
         <v>0.17</v>
@@ -2009,13 +2011,13 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
+        <v>354</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="D6" t="s">
         <v>355</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>353</v>
-      </c>
-      <c r="D6" t="s">
-        <v>356</v>
       </c>
       <c r="G6" s="11">
         <v>0.17</v>
@@ -2318,10 +2320,10 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F16" t="s">
         <v>96</v>
@@ -2447,13 +2449,13 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
+        <v>357</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="D21" t="s">
         <v>112</v>
-      </c>
-      <c r="D21" t="s">
-        <v>113</v>
       </c>
       <c r="G21" s="11">
         <v>0.47</v>
@@ -2463,16 +2465,16 @@
         <v>1.41</v>
       </c>
       <c r="I21" t="s">
+        <v>112</v>
+      </c>
+      <c r="J21" t="s">
         <v>113</v>
-      </c>
-      <c r="J21" t="s">
-        <v>114</v>
       </c>
       <c r="K21" t="s">
         <v>109</v>
       </c>
       <c r="L21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
@@ -2480,13 +2482,13 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
+        <v>115</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="D22" t="s">
         <v>117</v>
-      </c>
-      <c r="D22" t="s">
-        <v>118</v>
       </c>
       <c r="G22" s="11">
         <v>0.37</v>
@@ -2496,16 +2498,16 @@
         <v>0.37</v>
       </c>
       <c r="I22" t="s">
+        <v>117</v>
+      </c>
+      <c r="J22" t="s">
         <v>118</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>119</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>120</v>
-      </c>
-      <c r="L22" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
@@ -2513,13 +2515,13 @@
         <v>2</v>
       </c>
       <c r="B23" t="s">
+        <v>121</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="D23" t="s">
         <v>123</v>
-      </c>
-      <c r="D23" t="s">
-        <v>124</v>
       </c>
       <c r="G23" s="11">
         <v>0.59</v>
@@ -2529,16 +2531,16 @@
         <v>1.18</v>
       </c>
       <c r="I23" t="s">
+        <v>123</v>
+      </c>
+      <c r="J23" t="s">
         <v>124</v>
-      </c>
-      <c r="J23" t="s">
-        <v>125</v>
       </c>
       <c r="K23" t="s">
         <v>64</v>
       </c>
       <c r="L23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
@@ -2546,13 +2548,13 @@
         <v>8</v>
       </c>
       <c r="B24" t="s">
+        <v>126</v>
+      </c>
+      <c r="C24" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="D24" t="s">
         <v>128</v>
-      </c>
-      <c r="D24" t="s">
-        <v>129</v>
       </c>
       <c r="G24" s="11">
         <v>0.1</v>
@@ -2562,16 +2564,16 @@
         <v>0.8</v>
       </c>
       <c r="I24" t="s">
+        <v>128</v>
+      </c>
+      <c r="J24" t="s">
         <v>129</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>130</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>131</v>
-      </c>
-      <c r="L24" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
@@ -2579,13 +2581,13 @@
         <v>5</v>
       </c>
       <c r="B25" t="s">
+        <v>132</v>
+      </c>
+      <c r="C25" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="D25" t="s">
         <v>134</v>
-      </c>
-      <c r="D25" t="s">
-        <v>135</v>
       </c>
       <c r="G25" s="11">
         <v>0.1</v>
@@ -2595,16 +2597,16 @@
         <v>0.5</v>
       </c>
       <c r="I25" t="s">
+        <v>134</v>
+      </c>
+      <c r="J25" t="s">
         <v>135</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
+        <v>130</v>
+      </c>
+      <c r="L25" t="s">
         <v>136</v>
-      </c>
-      <c r="K25" t="s">
-        <v>131</v>
-      </c>
-      <c r="L25" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="29" x14ac:dyDescent="0.35">
@@ -2612,13 +2614,13 @@
         <v>14</v>
       </c>
       <c r="B26" t="s">
+        <v>137</v>
+      </c>
+      <c r="C26" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="D26" t="s">
         <v>139</v>
-      </c>
-      <c r="D26" t="s">
-        <v>140</v>
       </c>
       <c r="G26" s="11">
         <v>1.7000000000000001E-2</v>
@@ -2628,16 +2630,16 @@
         <v>0.23800000000000002</v>
       </c>
       <c r="I26" t="s">
+        <v>139</v>
+      </c>
+      <c r="J26" t="s">
         <v>140</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
+        <v>130</v>
+      </c>
+      <c r="L26" t="s">
         <v>141</v>
-      </c>
-      <c r="K26" t="s">
-        <v>131</v>
-      </c>
-      <c r="L26" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
@@ -2645,13 +2647,13 @@
         <v>1</v>
       </c>
       <c r="B27" t="s">
+        <v>142</v>
+      </c>
+      <c r="C27" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="D27" t="s">
         <v>144</v>
-      </c>
-      <c r="D27" t="s">
-        <v>145</v>
       </c>
       <c r="G27" s="11">
         <v>0.1</v>
@@ -2661,16 +2663,16 @@
         <v>0.1</v>
       </c>
       <c r="I27" t="s">
+        <v>144</v>
+      </c>
+      <c r="J27" t="s">
         <v>145</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K27" t="s">
         <v>146</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
         <v>147</v>
-      </c>
-      <c r="L27" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
@@ -2678,13 +2680,13 @@
         <v>2</v>
       </c>
       <c r="B28" t="s">
+        <v>148</v>
+      </c>
+      <c r="C28" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="D28" t="s">
         <v>150</v>
-      </c>
-      <c r="D28" t="s">
-        <v>151</v>
       </c>
       <c r="G28" s="11">
         <v>0.1</v>
@@ -2694,16 +2696,16 @@
         <v>0.2</v>
       </c>
       <c r="I28" t="s">
+        <v>150</v>
+      </c>
+      <c r="J28" t="s">
         <v>151</v>
       </c>
-      <c r="J28" t="s">
+      <c r="K28" t="s">
+        <v>130</v>
+      </c>
+      <c r="L28" t="s">
         <v>152</v>
-      </c>
-      <c r="K28" t="s">
-        <v>131</v>
-      </c>
-      <c r="L28" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
@@ -2711,13 +2713,13 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
+        <v>153</v>
+      </c>
+      <c r="C29" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="D29" t="s">
         <v>155</v>
-      </c>
-      <c r="D29" t="s">
-        <v>156</v>
       </c>
       <c r="G29" s="11">
         <v>0.1</v>
@@ -2727,16 +2729,16 @@
         <v>0.60000000000000009</v>
       </c>
       <c r="I29" t="s">
+        <v>155</v>
+      </c>
+      <c r="J29" t="s">
         <v>156</v>
       </c>
-      <c r="J29" t="s">
+      <c r="K29" t="s">
+        <v>130</v>
+      </c>
+      <c r="L29" t="s">
         <v>157</v>
-      </c>
-      <c r="K29" t="s">
-        <v>131</v>
-      </c>
-      <c r="L29" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
@@ -2744,13 +2746,13 @@
         <v>10</v>
       </c>
       <c r="B30" t="s">
+        <v>158</v>
+      </c>
+      <c r="C30" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="D30" t="s">
         <v>160</v>
-      </c>
-      <c r="D30" t="s">
-        <v>161</v>
       </c>
       <c r="G30" s="11">
         <v>3.5999999999999997E-2</v>
@@ -2760,16 +2762,16 @@
         <v>0.36</v>
       </c>
       <c r="I30" t="s">
+        <v>160</v>
+      </c>
+      <c r="J30" t="s">
         <v>161</v>
       </c>
-      <c r="J30" t="s">
+      <c r="K30" t="s">
+        <v>146</v>
+      </c>
+      <c r="L30" t="s">
         <v>162</v>
-      </c>
-      <c r="K30" t="s">
-        <v>147</v>
-      </c>
-      <c r="L30" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
@@ -2777,13 +2779,13 @@
         <v>4</v>
       </c>
       <c r="B31" t="s">
+        <v>163</v>
+      </c>
+      <c r="C31" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="D31" s="12" t="s">
         <v>165</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>166</v>
       </c>
       <c r="G31" s="11">
         <v>0.1</v>
@@ -2793,16 +2795,16 @@
         <v>0.4</v>
       </c>
       <c r="I31" t="s">
+        <v>165</v>
+      </c>
+      <c r="J31" t="s">
         <v>166</v>
       </c>
-      <c r="J31" t="s">
+      <c r="K31" t="s">
+        <v>146</v>
+      </c>
+      <c r="L31" t="s">
         <v>167</v>
-      </c>
-      <c r="K31" t="s">
-        <v>147</v>
-      </c>
-      <c r="L31" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
@@ -2810,13 +2812,13 @@
         <v>2</v>
       </c>
       <c r="B32" t="s">
+        <v>168</v>
+      </c>
+      <c r="C32" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="D32" t="s">
         <v>170</v>
-      </c>
-      <c r="D32" t="s">
-        <v>171</v>
       </c>
       <c r="G32" s="11">
         <v>0.1</v>
@@ -2826,16 +2828,16 @@
         <v>0.2</v>
       </c>
       <c r="I32" t="s">
+        <v>170</v>
+      </c>
+      <c r="J32" t="s">
         <v>171</v>
       </c>
-      <c r="J32" t="s">
+      <c r="K32" t="s">
+        <v>130</v>
+      </c>
+      <c r="L32" t="s">
         <v>172</v>
-      </c>
-      <c r="K32" t="s">
-        <v>131</v>
-      </c>
-      <c r="L32" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.35">
@@ -2843,13 +2845,13 @@
         <v>2</v>
       </c>
       <c r="B33" t="s">
+        <v>173</v>
+      </c>
+      <c r="C33" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="D33" t="s">
         <v>175</v>
-      </c>
-      <c r="D33" t="s">
-        <v>176</v>
       </c>
       <c r="G33" s="11">
         <v>0.1</v>
@@ -2859,16 +2861,16 @@
         <v>0.2</v>
       </c>
       <c r="I33" t="s">
+        <v>175</v>
+      </c>
+      <c r="J33" t="s">
         <v>176</v>
       </c>
-      <c r="J33" t="s">
+      <c r="K33" t="s">
+        <v>146</v>
+      </c>
+      <c r="L33" t="s">
         <v>177</v>
-      </c>
-      <c r="K33" t="s">
-        <v>147</v>
-      </c>
-      <c r="L33" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.35">
@@ -2876,13 +2878,13 @@
         <v>2</v>
       </c>
       <c r="B34" t="s">
+        <v>178</v>
+      </c>
+      <c r="C34" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="D34" t="s">
         <v>180</v>
-      </c>
-      <c r="D34" t="s">
-        <v>181</v>
       </c>
       <c r="G34" s="11">
         <v>0.1</v>
@@ -2892,16 +2894,16 @@
         <v>0.2</v>
       </c>
       <c r="I34" t="s">
+        <v>180</v>
+      </c>
+      <c r="J34" t="s">
         <v>181</v>
       </c>
-      <c r="J34" t="s">
+      <c r="K34" t="s">
+        <v>146</v>
+      </c>
+      <c r="L34" t="s">
         <v>182</v>
-      </c>
-      <c r="K34" t="s">
-        <v>147</v>
-      </c>
-      <c r="L34" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.35">
@@ -2909,13 +2911,13 @@
         <v>2</v>
       </c>
       <c r="B35" t="s">
+        <v>183</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="D35" t="s">
         <v>184</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>347</v>
-      </c>
-      <c r="D35" t="s">
-        <v>185</v>
       </c>
       <c r="G35" s="11">
         <v>0.1</v>
@@ -2925,16 +2927,16 @@
         <v>0.2</v>
       </c>
       <c r="I35" t="s">
+        <v>184</v>
+      </c>
+      <c r="J35" t="s">
         <v>185</v>
       </c>
-      <c r="J35" t="s">
+      <c r="K35" t="s">
+        <v>146</v>
+      </c>
+      <c r="L35" t="s">
         <v>186</v>
-      </c>
-      <c r="K35" t="s">
-        <v>147</v>
-      </c>
-      <c r="L35" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
@@ -2942,13 +2944,13 @@
         <v>1</v>
       </c>
       <c r="B36" t="s">
+        <v>187</v>
+      </c>
+      <c r="C36" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="D36" t="s">
         <v>189</v>
-      </c>
-      <c r="D36" t="s">
-        <v>190</v>
       </c>
       <c r="G36" s="11">
         <v>0.1</v>
@@ -2958,16 +2960,16 @@
         <v>0.1</v>
       </c>
       <c r="I36" t="s">
+        <v>189</v>
+      </c>
+      <c r="J36" t="s">
         <v>190</v>
       </c>
-      <c r="J36" t="s">
+      <c r="K36" t="s">
+        <v>130</v>
+      </c>
+      <c r="L36" t="s">
         <v>191</v>
-      </c>
-      <c r="K36" t="s">
-        <v>131</v>
-      </c>
-      <c r="L36" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.35">
@@ -2975,13 +2977,13 @@
         <v>1</v>
       </c>
       <c r="B37" t="s">
+        <v>192</v>
+      </c>
+      <c r="C37" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="D37" t="s">
         <v>194</v>
-      </c>
-      <c r="D37" t="s">
-        <v>195</v>
       </c>
       <c r="G37" s="11">
         <v>0.1</v>
@@ -2991,16 +2993,16 @@
         <v>0.1</v>
       </c>
       <c r="I37" t="s">
+        <v>194</v>
+      </c>
+      <c r="J37" t="s">
         <v>195</v>
       </c>
-      <c r="J37" t="s">
+      <c r="K37" t="s">
+        <v>130</v>
+      </c>
+      <c r="L37" t="s">
         <v>196</v>
-      </c>
-      <c r="K37" t="s">
-        <v>131</v>
-      </c>
-      <c r="L37" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.35">
@@ -3008,13 +3010,13 @@
         <v>1</v>
       </c>
       <c r="B38" t="s">
+        <v>197</v>
+      </c>
+      <c r="C38" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="D38" t="s">
         <v>199</v>
-      </c>
-      <c r="D38" t="s">
-        <v>200</v>
       </c>
       <c r="G38" s="11">
         <v>0.1</v>
@@ -3024,16 +3026,16 @@
         <v>0.1</v>
       </c>
       <c r="I38" t="s">
+        <v>199</v>
+      </c>
+      <c r="J38" t="s">
         <v>200</v>
       </c>
-      <c r="J38" t="s">
+      <c r="K38" t="s">
+        <v>130</v>
+      </c>
+      <c r="L38" t="s">
         <v>201</v>
-      </c>
-      <c r="K38" t="s">
-        <v>131</v>
-      </c>
-      <c r="L38" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.35">
@@ -3041,13 +3043,13 @@
         <v>1</v>
       </c>
       <c r="B39" t="s">
+        <v>202</v>
+      </c>
+      <c r="C39" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="D39" t="s">
         <v>204</v>
-      </c>
-      <c r="D39" t="s">
-        <v>205</v>
       </c>
       <c r="G39" s="11">
         <v>0.1</v>
@@ -3057,16 +3059,16 @@
         <v>0.1</v>
       </c>
       <c r="I39" t="s">
+        <v>204</v>
+      </c>
+      <c r="J39" t="s">
         <v>205</v>
       </c>
-      <c r="J39" t="s">
+      <c r="K39" t="s">
+        <v>130</v>
+      </c>
+      <c r="L39" t="s">
         <v>206</v>
-      </c>
-      <c r="K39" t="s">
-        <v>131</v>
-      </c>
-      <c r="L39" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="29" x14ac:dyDescent="0.35">
@@ -3074,13 +3076,13 @@
         <v>18</v>
       </c>
       <c r="B40" t="s">
+        <v>207</v>
+      </c>
+      <c r="C40" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="F40" t="s">
         <v>209</v>
-      </c>
-      <c r="F40" t="s">
-        <v>210</v>
       </c>
       <c r="G40" s="11">
         <v>2.8000000000000001E-2</v>
@@ -3095,13 +3097,13 @@
         <v>1</v>
       </c>
       <c r="B41" t="s">
+        <v>210</v>
+      </c>
+      <c r="C41" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="D41" t="s">
         <v>212</v>
-      </c>
-      <c r="D41" t="s">
-        <v>213</v>
       </c>
       <c r="G41" s="11">
         <v>4.0199999999999996</v>
@@ -3111,16 +3113,16 @@
         <v>4.0199999999999996</v>
       </c>
       <c r="I41" t="s">
+        <v>212</v>
+      </c>
+      <c r="J41" t="s">
+        <v>210</v>
+      </c>
+      <c r="K41" t="s">
         <v>213</v>
       </c>
-      <c r="J41" t="s">
-        <v>211</v>
-      </c>
-      <c r="K41" t="s">
+      <c r="L41" t="s">
         <v>214</v>
-      </c>
-      <c r="L41" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.35">
@@ -3128,13 +3130,13 @@
         <v>1</v>
       </c>
       <c r="B42" t="s">
+        <v>215</v>
+      </c>
+      <c r="C42" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="D42" t="s">
         <v>217</v>
-      </c>
-      <c r="D42" t="s">
-        <v>218</v>
       </c>
       <c r="G42" s="11">
         <v>5.17</v>
@@ -3144,16 +3146,16 @@
         <v>5.17</v>
       </c>
       <c r="I42" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J42" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K42" t="s">
+        <v>213</v>
+      </c>
+      <c r="L42" t="s">
         <v>214</v>
-      </c>
-      <c r="L42" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.35">
@@ -3161,16 +3163,16 @@
         <v>2</v>
       </c>
       <c r="B43" t="s">
+        <v>218</v>
+      </c>
+      <c r="C43" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="D43" t="s">
         <v>220</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>221</v>
-      </c>
-      <c r="E43" t="s">
-        <v>222</v>
       </c>
       <c r="G43" s="11">
         <v>0.85</v>
@@ -3185,13 +3187,13 @@
         <v>1</v>
       </c>
       <c r="B44" t="s">
+        <v>222</v>
+      </c>
+      <c r="C44" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="D44" t="s">
         <v>224</v>
-      </c>
-      <c r="D44" t="s">
-        <v>225</v>
       </c>
       <c r="G44" s="11">
         <v>3.6</v>
@@ -3201,16 +3203,16 @@
         <v>3.6</v>
       </c>
       <c r="I44" t="s">
+        <v>224</v>
+      </c>
+      <c r="J44" t="s">
+        <v>222</v>
+      </c>
+      <c r="K44" t="s">
+        <v>213</v>
+      </c>
+      <c r="L44" t="s">
         <v>225</v>
-      </c>
-      <c r="J44" t="s">
-        <v>223</v>
-      </c>
-      <c r="K44" t="s">
-        <v>214</v>
-      </c>
-      <c r="L44" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.35">
@@ -3218,13 +3220,13 @@
         <v>2</v>
       </c>
       <c r="B45" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C45" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="D45" t="s">
         <v>227</v>
-      </c>
-      <c r="D45" t="s">
-        <v>228</v>
       </c>
       <c r="E45" t="s">
         <v>80</v>
@@ -3237,16 +3239,16 @@
         <v>10.64</v>
       </c>
       <c r="I45" t="s">
+        <v>227</v>
+      </c>
+      <c r="J45" t="s">
         <v>228</v>
       </c>
-      <c r="J45" t="s">
+      <c r="K45" t="s">
         <v>229</v>
       </c>
-      <c r="K45" t="s">
+      <c r="L45" t="s">
         <v>230</v>
-      </c>
-      <c r="L45" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.35">
@@ -3254,13 +3256,13 @@
         <v>3</v>
       </c>
       <c r="B46" t="s">
+        <v>231</v>
+      </c>
+      <c r="C46" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="D46" s="13" t="s">
         <v>233</v>
-      </c>
-      <c r="D46" s="13" t="s">
-        <v>234</v>
       </c>
       <c r="E46" t="s">
         <v>80</v>
@@ -3273,16 +3275,16 @@
         <v>0.99</v>
       </c>
       <c r="I46" t="s">
+        <v>234</v>
+      </c>
+      <c r="J46" t="s">
         <v>235</v>
       </c>
-      <c r="J46" t="s">
+      <c r="K46" t="s">
         <v>236</v>
       </c>
-      <c r="K46" t="s">
+      <c r="L46" t="s">
         <v>237</v>
-      </c>
-      <c r="L46" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.35">
@@ -3290,13 +3292,13 @@
         <v>4</v>
       </c>
       <c r="B47" t="s">
+        <v>238</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="D47" t="s">
         <v>239</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>313</v>
-      </c>
-      <c r="D47" t="s">
-        <v>240</v>
       </c>
       <c r="G47" s="11">
         <v>0.84</v>
@@ -3306,16 +3308,16 @@
         <v>3.36</v>
       </c>
       <c r="I47" t="s">
+        <v>240</v>
+      </c>
+      <c r="J47" t="s">
         <v>241</v>
       </c>
-      <c r="J47" t="s">
+      <c r="K47" t="s">
+        <v>236</v>
+      </c>
+      <c r="L47" t="s">
         <v>242</v>
-      </c>
-      <c r="K47" t="s">
-        <v>237</v>
-      </c>
-      <c r="L47" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.35">
@@ -3323,13 +3325,13 @@
         <v>1</v>
       </c>
       <c r="B48" t="s">
+        <v>243</v>
+      </c>
+      <c r="C48" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="D48" t="s">
         <v>245</v>
-      </c>
-      <c r="D48" t="s">
-        <v>246</v>
       </c>
       <c r="G48" s="11">
         <v>0.47</v>
@@ -3344,13 +3346,13 @@
         <v>4</v>
       </c>
       <c r="B49" t="s">
+        <v>246</v>
+      </c>
+      <c r="C49" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="D49" t="s">
         <v>248</v>
-      </c>
-      <c r="D49" t="s">
-        <v>249</v>
       </c>
       <c r="G49" s="11">
         <v>1.03</v>
@@ -3360,16 +3362,16 @@
         <v>4.12</v>
       </c>
       <c r="I49" t="s">
+        <v>248</v>
+      </c>
+      <c r="J49" t="s">
         <v>249</v>
       </c>
-      <c r="J49" t="s">
+      <c r="K49" t="s">
         <v>250</v>
       </c>
-      <c r="K49" t="s">
+      <c r="L49" t="s">
         <v>251</v>
-      </c>
-      <c r="L49" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.35">
@@ -3377,13 +3379,13 @@
         <v>1</v>
       </c>
       <c r="B50" t="s">
+        <v>252</v>
+      </c>
+      <c r="C50" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="D50" t="s">
         <v>254</v>
-      </c>
-      <c r="D50" t="s">
-        <v>255</v>
       </c>
       <c r="G50" s="11">
         <v>2.14</v>
@@ -3393,16 +3395,16 @@
         <v>2.14</v>
       </c>
       <c r="I50" t="s">
+        <v>254</v>
+      </c>
+      <c r="J50" t="s">
         <v>255</v>
       </c>
-      <c r="J50" t="s">
+      <c r="K50" t="s">
         <v>256</v>
       </c>
-      <c r="K50" t="s">
+      <c r="L50" t="s">
         <v>257</v>
-      </c>
-      <c r="L50" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.35">
@@ -3410,13 +3412,13 @@
         <v>1</v>
       </c>
       <c r="B51" t="s">
+        <v>258</v>
+      </c>
+      <c r="C51" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="D51" t="s">
         <v>260</v>
-      </c>
-      <c r="D51" t="s">
-        <v>261</v>
       </c>
       <c r="G51" s="11">
         <v>1.87</v>
@@ -3426,16 +3428,16 @@
         <v>1.87</v>
       </c>
       <c r="I51" t="s">
+        <v>260</v>
+      </c>
+      <c r="J51" t="s">
+        <v>258</v>
+      </c>
+      <c r="K51" t="s">
+        <v>213</v>
+      </c>
+      <c r="L51" t="s">
         <v>261</v>
-      </c>
-      <c r="J51" t="s">
-        <v>259</v>
-      </c>
-      <c r="K51" t="s">
-        <v>214</v>
-      </c>
-      <c r="L51" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.35">
@@ -3443,13 +3445,13 @@
         <v>1</v>
       </c>
       <c r="B52" t="s">
+        <v>262</v>
+      </c>
+      <c r="C52" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="D52" t="s">
         <v>264</v>
-      </c>
-      <c r="D52" t="s">
-        <v>265</v>
       </c>
       <c r="G52" s="11">
         <v>2.46</v>
@@ -3459,16 +3461,16 @@
         <v>2.46</v>
       </c>
       <c r="I52" t="s">
+        <v>264</v>
+      </c>
+      <c r="J52" t="s">
+        <v>262</v>
+      </c>
+      <c r="K52" t="s">
+        <v>236</v>
+      </c>
+      <c r="L52" t="s">
         <v>265</v>
-      </c>
-      <c r="J52" t="s">
-        <v>263</v>
-      </c>
-      <c r="K52" t="s">
-        <v>237</v>
-      </c>
-      <c r="L52" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.35">
@@ -3476,13 +3478,13 @@
         <v>1</v>
       </c>
       <c r="B53" t="s">
+        <v>266</v>
+      </c>
+      <c r="C53" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="D53" t="s">
         <v>268</v>
-      </c>
-      <c r="D53" t="s">
-        <v>269</v>
       </c>
       <c r="G53" s="11">
         <v>1.69</v>
@@ -3492,16 +3494,16 @@
         <v>1.69</v>
       </c>
       <c r="I53" t="s">
+        <v>268</v>
+      </c>
+      <c r="J53" t="s">
         <v>269</v>
       </c>
-      <c r="J53" t="s">
+      <c r="K53" t="s">
+        <v>236</v>
+      </c>
+      <c r="L53" t="s">
         <v>270</v>
-      </c>
-      <c r="K53" t="s">
-        <v>237</v>
-      </c>
-      <c r="L53" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.35">
@@ -3509,13 +3511,13 @@
         <v>1</v>
       </c>
       <c r="B54" t="s">
+        <v>271</v>
+      </c>
+      <c r="C54" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="C54" s="8" t="s">
+      <c r="D54" t="s">
         <v>273</v>
-      </c>
-      <c r="D54" t="s">
-        <v>274</v>
       </c>
       <c r="G54" s="11">
         <v>0.46</v>
@@ -3525,16 +3527,16 @@
         <v>0.46</v>
       </c>
       <c r="I54" t="s">
+        <v>274</v>
+      </c>
+      <c r="J54" t="s">
         <v>275</v>
       </c>
-      <c r="J54" t="s">
+      <c r="K54" t="s">
+        <v>119</v>
+      </c>
+      <c r="L54" t="s">
         <v>276</v>
-      </c>
-      <c r="K54" t="s">
-        <v>120</v>
-      </c>
-      <c r="L54" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.35">
@@ -3542,13 +3544,13 @@
         <v>1</v>
       </c>
       <c r="B55" t="s">
+        <v>277</v>
+      </c>
+      <c r="C55" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="D55" t="s">
         <v>279</v>
-      </c>
-      <c r="D55" t="s">
-        <v>280</v>
       </c>
       <c r="G55" s="11">
         <v>1.42</v>
@@ -3558,16 +3560,16 @@
         <v>1.42</v>
       </c>
       <c r="I55" t="s">
+        <v>279</v>
+      </c>
+      <c r="J55" t="s">
         <v>280</v>
       </c>
-      <c r="J55" t="s">
+      <c r="K55" t="s">
         <v>281</v>
       </c>
-      <c r="K55" t="s">
+      <c r="L55" t="s">
         <v>282</v>
-      </c>
-      <c r="L55" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.35">
@@ -3575,13 +3577,13 @@
         <v>2</v>
       </c>
       <c r="B56" t="s">
+        <v>283</v>
+      </c>
+      <c r="C56" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="C56" s="8" t="s">
+      <c r="D56" t="s">
         <v>285</v>
-      </c>
-      <c r="D56" t="s">
-        <v>286</v>
       </c>
       <c r="G56" s="11">
         <v>12.52</v>
@@ -3591,16 +3593,16 @@
         <v>25.04</v>
       </c>
       <c r="I56" t="s">
+        <v>285</v>
+      </c>
+      <c r="J56" t="s">
         <v>286</v>
       </c>
-      <c r="J56" t="s">
+      <c r="K56" t="s">
         <v>287</v>
       </c>
-      <c r="K56" t="s">
+      <c r="L56" t="s">
         <v>288</v>
-      </c>
-      <c r="L56" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.35">
@@ -3608,13 +3610,13 @@
         <v>1</v>
       </c>
       <c r="B57" t="s">
+        <v>289</v>
+      </c>
+      <c r="C57" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="C57" s="8" t="s">
+      <c r="D57" t="s">
         <v>291</v>
-      </c>
-      <c r="D57" t="s">
-        <v>292</v>
       </c>
       <c r="E57" t="s">
         <v>80</v>
@@ -3627,16 +3629,16 @@
         <v>9.86</v>
       </c>
       <c r="I57" t="s">
+        <v>292</v>
+      </c>
+      <c r="J57" t="s">
         <v>293</v>
       </c>
-      <c r="J57" t="s">
+      <c r="K57" t="s">
         <v>294</v>
       </c>
-      <c r="K57" t="s">
+      <c r="L57" t="s">
         <v>295</v>
-      </c>
-      <c r="L57" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.35">
@@ -3644,16 +3646,16 @@
         <v>1</v>
       </c>
       <c r="B58" t="s">
+        <v>296</v>
+      </c>
+      <c r="C58" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="C58" s="8" t="s">
+      <c r="D58" t="s">
         <v>298</v>
       </c>
-      <c r="D58" t="s">
+      <c r="E58" t="s">
         <v>299</v>
-      </c>
-      <c r="E58" t="s">
-        <v>300</v>
       </c>
       <c r="G58" s="11">
         <v>0.45</v>
@@ -3663,16 +3665,16 @@
         <v>0.45</v>
       </c>
       <c r="I58" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J58" t="s">
+        <v>300</v>
+      </c>
+      <c r="K58" t="s">
+        <v>294</v>
+      </c>
+      <c r="L58" t="s">
         <v>301</v>
-      </c>
-      <c r="K58" t="s">
-        <v>295</v>
-      </c>
-      <c r="L58" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
@@ -3680,13 +3682,13 @@
         <v>1</v>
       </c>
       <c r="B59" s="23" t="s">
+        <v>349</v>
+      </c>
+      <c r="C59" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="C59" s="8" t="s">
-        <v>351</v>
-      </c>
       <c r="D59" s="22" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G59" s="11">
         <v>0.7</v>
@@ -3701,13 +3703,13 @@
         <v>4</v>
       </c>
       <c r="B60" t="s">
+        <v>302</v>
+      </c>
+      <c r="C60" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="C60" s="8" t="s">
+      <c r="F60" t="s">
         <v>304</v>
-      </c>
-      <c r="F60" t="s">
-        <v>305</v>
       </c>
       <c r="G60" s="11">
         <v>0.02</v>
@@ -3732,7 +3734,7 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B63" s="21" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
   </sheetData>
@@ -3745,7 +3747,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -3852,13 +3856,13 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G5" s="11">
         <v>0.17</v>
@@ -3873,13 +3877,13 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
+        <v>354</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="D6" t="s">
         <v>355</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>353</v>
-      </c>
-      <c r="D6" t="s">
-        <v>356</v>
       </c>
       <c r="G6" s="11">
         <v>0.17</v>
@@ -3897,7 +3901,7 @@
         <v>42</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D7" t="s">
         <v>44</v>
@@ -4062,10 +4066,10 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F15" t="s">
         <v>96</v>
@@ -4128,7 +4132,7 @@
         <v>99</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D18" t="s">
         <v>101</v>
@@ -4167,13 +4171,13 @@
         <v>3</v>
       </c>
       <c r="B20" t="s">
+        <v>357</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="D20" t="s">
         <v>112</v>
-      </c>
-      <c r="D20" t="s">
-        <v>113</v>
       </c>
       <c r="G20" s="11">
         <v>0.47</v>
@@ -4188,13 +4192,13 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
+        <v>115</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="D21" t="s">
         <v>117</v>
-      </c>
-      <c r="D21" t="s">
-        <v>118</v>
       </c>
       <c r="G21" s="11">
         <v>0.37</v>
@@ -4209,13 +4213,13 @@
         <v>2</v>
       </c>
       <c r="B22" t="s">
+        <v>121</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="D22" t="s">
         <v>123</v>
-      </c>
-      <c r="D22" t="s">
-        <v>124</v>
       </c>
       <c r="G22" s="11">
         <v>0.59</v>
@@ -4230,13 +4234,13 @@
         <v>8</v>
       </c>
       <c r="B23" t="s">
+        <v>126</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="D23" t="s">
         <v>128</v>
-      </c>
-      <c r="D23" t="s">
-        <v>129</v>
       </c>
       <c r="G23" s="11">
         <v>0.1</v>
@@ -4251,13 +4255,13 @@
         <v>5</v>
       </c>
       <c r="B24" t="s">
+        <v>132</v>
+      </c>
+      <c r="C24" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="D24" t="s">
         <v>134</v>
-      </c>
-      <c r="D24" t="s">
-        <v>135</v>
       </c>
       <c r="G24" s="11">
         <v>0.1</v>
@@ -4272,13 +4276,13 @@
         <v>10</v>
       </c>
       <c r="B25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D25" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G25" s="11">
         <v>1.7000000000000001E-2</v>
@@ -4293,13 +4297,13 @@
         <v>1</v>
       </c>
       <c r="B26" t="s">
+        <v>142</v>
+      </c>
+      <c r="C26" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="D26" t="s">
         <v>144</v>
-      </c>
-      <c r="D26" t="s">
-        <v>145</v>
       </c>
       <c r="G26" s="11">
         <v>0.1</v>
@@ -4314,13 +4318,13 @@
         <v>2</v>
       </c>
       <c r="B27" t="s">
+        <v>148</v>
+      </c>
+      <c r="C27" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="D27" t="s">
         <v>150</v>
-      </c>
-      <c r="D27" t="s">
-        <v>151</v>
       </c>
       <c r="G27" s="11">
         <v>0.1</v>
@@ -4335,13 +4339,13 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
+        <v>153</v>
+      </c>
+      <c r="C28" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="D28" t="s">
         <v>155</v>
-      </c>
-      <c r="D28" t="s">
-        <v>156</v>
       </c>
       <c r="G28" s="11">
         <v>0.1</v>
@@ -4356,13 +4360,13 @@
         <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D29" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G29" s="11">
         <v>3.5999999999999997E-2</v>
@@ -4377,13 +4381,13 @@
         <v>4</v>
       </c>
       <c r="B30" t="s">
+        <v>163</v>
+      </c>
+      <c r="C30" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="D30" s="12" t="s">
         <v>165</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>166</v>
       </c>
       <c r="G30" s="11">
         <v>0.1</v>
@@ -4398,13 +4402,13 @@
         <v>2</v>
       </c>
       <c r="B31" t="s">
+        <v>168</v>
+      </c>
+      <c r="C31" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="D31" t="s">
         <v>170</v>
-      </c>
-      <c r="D31" t="s">
-        <v>171</v>
       </c>
       <c r="G31" s="11">
         <v>0.1</v>
@@ -4419,13 +4423,13 @@
         <v>2</v>
       </c>
       <c r="B32" t="s">
+        <v>173</v>
+      </c>
+      <c r="C32" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="D32" t="s">
         <v>175</v>
-      </c>
-      <c r="D32" t="s">
-        <v>176</v>
       </c>
       <c r="G32" s="11">
         <v>0.1</v>
@@ -4440,13 +4444,13 @@
         <v>2</v>
       </c>
       <c r="B33" t="s">
+        <v>178</v>
+      </c>
+      <c r="C33" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="D33" t="s">
         <v>180</v>
-      </c>
-      <c r="D33" t="s">
-        <v>181</v>
       </c>
       <c r="G33" s="11">
         <v>0.1</v>
@@ -4461,13 +4465,13 @@
         <v>2</v>
       </c>
       <c r="B34" t="s">
+        <v>183</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="D34" t="s">
         <v>184</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>347</v>
-      </c>
-      <c r="D34" t="s">
-        <v>185</v>
       </c>
       <c r="G34" s="11">
         <v>0.1</v>
@@ -4482,13 +4486,13 @@
         <v>1</v>
       </c>
       <c r="B35" t="s">
+        <v>187</v>
+      </c>
+      <c r="C35" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="D35" t="s">
         <v>189</v>
-      </c>
-      <c r="D35" t="s">
-        <v>190</v>
       </c>
       <c r="G35" s="11">
         <v>0.1</v>
@@ -4503,13 +4507,13 @@
         <v>1</v>
       </c>
       <c r="B36" t="s">
+        <v>192</v>
+      </c>
+      <c r="C36" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="C36" s="8" t="s">
-        <v>194</v>
-      </c>
       <c r="D36" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G36" s="11">
         <v>0.1</v>
@@ -4524,13 +4528,13 @@
         <v>1</v>
       </c>
       <c r="B37" t="s">
+        <v>197</v>
+      </c>
+      <c r="C37" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="D37" t="s">
         <v>199</v>
-      </c>
-      <c r="D37" t="s">
-        <v>200</v>
       </c>
       <c r="G37" s="11">
         <v>0.1</v>
@@ -4545,13 +4549,13 @@
         <v>1</v>
       </c>
       <c r="B38" t="s">
+        <v>202</v>
+      </c>
+      <c r="C38" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="D38" t="s">
         <v>204</v>
-      </c>
-      <c r="D38" t="s">
-        <v>205</v>
       </c>
       <c r="G38" s="11">
         <v>0.1</v>
@@ -4566,13 +4570,13 @@
         <v>18</v>
       </c>
       <c r="B39" t="s">
+        <v>207</v>
+      </c>
+      <c r="C39" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="F39" t="s">
         <v>209</v>
-      </c>
-      <c r="F39" t="s">
-        <v>210</v>
       </c>
       <c r="G39" s="11">
         <v>2.8000000000000001E-2</v>
@@ -4587,13 +4591,13 @@
         <v>1</v>
       </c>
       <c r="B40" t="s">
+        <v>210</v>
+      </c>
+      <c r="C40" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="D40" t="s">
         <v>212</v>
-      </c>
-      <c r="D40" t="s">
-        <v>213</v>
       </c>
       <c r="G40" s="11">
         <v>4.0199999999999996</v>
@@ -4608,13 +4612,13 @@
         <v>1</v>
       </c>
       <c r="B41" t="s">
+        <v>215</v>
+      </c>
+      <c r="C41" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="D41" t="s">
         <v>217</v>
-      </c>
-      <c r="D41" t="s">
-        <v>218</v>
       </c>
       <c r="G41" s="11">
         <v>5.17</v>
@@ -4629,16 +4633,16 @@
         <v>2</v>
       </c>
       <c r="B42" t="s">
+        <v>218</v>
+      </c>
+      <c r="C42" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="D42" t="s">
         <v>220</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>221</v>
-      </c>
-      <c r="E42" t="s">
-        <v>222</v>
       </c>
       <c r="G42" s="11">
         <v>0.85</v>
@@ -4653,13 +4657,13 @@
         <v>1</v>
       </c>
       <c r="B43" t="s">
+        <v>222</v>
+      </c>
+      <c r="C43" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="D43" t="s">
         <v>224</v>
-      </c>
-      <c r="D43" t="s">
-        <v>225</v>
       </c>
       <c r="G43" s="11">
         <v>3.6</v>
@@ -4674,13 +4678,13 @@
         <v>2</v>
       </c>
       <c r="B44" t="s">
+        <v>310</v>
+      </c>
+      <c r="C44" s="8" t="s">
         <v>311</v>
       </c>
-      <c r="C44" s="8" t="s">
-        <v>312</v>
-      </c>
       <c r="D44" s="13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E44" t="s">
         <v>80</v>
@@ -4698,13 +4702,13 @@
         <v>4</v>
       </c>
       <c r="B45" t="s">
+        <v>238</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="D45" t="s">
         <v>239</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>313</v>
-      </c>
-      <c r="D45" t="s">
-        <v>240</v>
       </c>
       <c r="G45" s="11">
         <v>0.84</v>
@@ -4719,13 +4723,13 @@
         <v>1</v>
       </c>
       <c r="B46" t="s">
+        <v>243</v>
+      </c>
+      <c r="C46" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="D46" t="s">
         <v>245</v>
-      </c>
-      <c r="D46" t="s">
-        <v>246</v>
       </c>
       <c r="G46" s="11">
         <v>0.47</v>
@@ -4740,13 +4744,13 @@
         <v>2</v>
       </c>
       <c r="B47" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D47" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G47" s="11">
         <v>1.03</v>
@@ -4761,13 +4765,13 @@
         <v>1</v>
       </c>
       <c r="B48" t="s">
+        <v>252</v>
+      </c>
+      <c r="C48" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="D48" t="s">
         <v>254</v>
-      </c>
-      <c r="D48" t="s">
-        <v>255</v>
       </c>
       <c r="G48" s="11">
         <v>2.14</v>
@@ -4782,13 +4786,13 @@
         <v>1</v>
       </c>
       <c r="B49" t="s">
+        <v>258</v>
+      </c>
+      <c r="C49" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="D49" t="s">
         <v>260</v>
-      </c>
-      <c r="D49" t="s">
-        <v>261</v>
       </c>
       <c r="G49" s="11">
         <v>1.87</v>
@@ -4803,13 +4807,13 @@
         <v>1</v>
       </c>
       <c r="B50" t="s">
+        <v>262</v>
+      </c>
+      <c r="C50" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="D50" t="s">
         <v>264</v>
-      </c>
-      <c r="D50" t="s">
-        <v>265</v>
       </c>
       <c r="G50" s="11">
         <v>2.46</v>
@@ -4824,13 +4828,13 @@
         <v>1</v>
       </c>
       <c r="B51" t="s">
+        <v>266</v>
+      </c>
+      <c r="C51" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="D51" t="s">
         <v>268</v>
-      </c>
-      <c r="D51" t="s">
-        <v>269</v>
       </c>
       <c r="G51" s="11">
         <v>1.69</v>
@@ -4845,13 +4849,13 @@
         <v>1</v>
       </c>
       <c r="B52" t="s">
+        <v>271</v>
+      </c>
+      <c r="C52" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="D52" t="s">
         <v>273</v>
-      </c>
-      <c r="D52" t="s">
-        <v>274</v>
       </c>
       <c r="G52" s="11">
         <v>0.46</v>
@@ -4866,16 +4870,16 @@
         <v>1</v>
       </c>
       <c r="B53" t="s">
+        <v>296</v>
+      </c>
+      <c r="C53" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="D53" t="s">
         <v>298</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
         <v>299</v>
-      </c>
-      <c r="E53" t="s">
-        <v>300</v>
       </c>
       <c r="G53" s="11">
         <v>0.45</v>
@@ -4890,13 +4894,13 @@
         <v>1</v>
       </c>
       <c r="B54" s="23" t="s">
+        <v>349</v>
+      </c>
+      <c r="C54" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="C54" s="8" t="s">
-        <v>351</v>
-      </c>
       <c r="D54" s="22" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G54" s="11">
         <v>0.7</v>
@@ -4911,13 +4915,13 @@
         <v>4</v>
       </c>
       <c r="B55" t="s">
+        <v>302</v>
+      </c>
+      <c r="C55" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="F55" t="s">
         <v>304</v>
-      </c>
-      <c r="F55" t="s">
-        <v>305</v>
       </c>
       <c r="G55" s="11">
         <v>0.02</v>
@@ -4940,7 +4944,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B58" s="21" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
   </sheetData>
@@ -4957,7 +4961,9 @@
   </sheetPr>
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -5004,7 +5010,7 @@
         <v>22</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D2" t="s">
         <v>24</v>
@@ -5046,7 +5052,7 @@
         <v>34</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D4" t="s">
         <v>36</v>
@@ -5064,13 +5070,13 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G5" s="11">
         <v>0.17</v>
@@ -5085,13 +5091,13 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
+        <v>354</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="D6" t="s">
         <v>355</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>353</v>
-      </c>
-      <c r="D6" t="s">
-        <v>356</v>
       </c>
       <c r="G6" s="11">
         <v>0.17</v>
@@ -5109,7 +5115,7 @@
         <v>42</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D7" t="s">
         <v>44</v>
@@ -5148,10 +5154,10 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D9" t="s">
         <v>73</v>
@@ -5169,10 +5175,10 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D10" t="s">
         <v>79</v>
@@ -5277,7 +5283,7 @@
         <v>99</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D15" t="s">
         <v>101</v>
@@ -5298,7 +5304,7 @@
         <v>105</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D16" t="s">
         <v>107</v>
@@ -5316,13 +5322,13 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
+        <v>357</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="D17" t="s">
         <v>112</v>
-      </c>
-      <c r="D17" t="s">
-        <v>113</v>
       </c>
       <c r="G17" s="11">
         <v>0.47</v>
@@ -5337,13 +5343,13 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
+        <v>121</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="D18" t="s">
         <v>123</v>
-      </c>
-      <c r="D18" t="s">
-        <v>124</v>
       </c>
       <c r="G18" s="11">
         <v>0.59</v>
@@ -5358,13 +5364,13 @@
         <v>8</v>
       </c>
       <c r="B19" t="s">
+        <v>126</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="D19" t="s">
         <v>128</v>
-      </c>
-      <c r="D19" t="s">
-        <v>129</v>
       </c>
       <c r="G19" s="11">
         <v>0.1</v>
@@ -5379,13 +5385,13 @@
         <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G20" s="11">
         <v>0.1</v>
@@ -5400,13 +5406,13 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G21" s="11">
         <v>1.7000000000000001E-2</v>
@@ -5421,13 +5427,13 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
+        <v>142</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="D22" t="s">
         <v>144</v>
-      </c>
-      <c r="D22" t="s">
-        <v>145</v>
       </c>
       <c r="G22" s="11">
         <v>0.1</v>
@@ -5442,13 +5448,13 @@
         <v>2</v>
       </c>
       <c r="B23" t="s">
+        <v>148</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="D23" t="s">
         <v>150</v>
-      </c>
-      <c r="D23" t="s">
-        <v>151</v>
       </c>
       <c r="G23" s="11">
         <v>0.1</v>
@@ -5463,13 +5469,13 @@
         <v>2</v>
       </c>
       <c r="B24" t="s">
+        <v>178</v>
+      </c>
+      <c r="C24" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="D24" t="s">
         <v>180</v>
-      </c>
-      <c r="D24" t="s">
-        <v>181</v>
       </c>
       <c r="G24" s="11">
         <v>0.1</v>
@@ -5484,13 +5490,13 @@
         <v>10</v>
       </c>
       <c r="B25" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F25" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G25" s="11">
         <v>2.8000000000000001E-2</v>
@@ -5505,13 +5511,13 @@
         <v>1</v>
       </c>
       <c r="B26" t="s">
+        <v>210</v>
+      </c>
+      <c r="C26" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="D26" t="s">
         <v>212</v>
-      </c>
-      <c r="D26" t="s">
-        <v>213</v>
       </c>
       <c r="G26" s="11">
         <v>4.0199999999999996</v>
@@ -5526,16 +5532,16 @@
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D27" t="s">
+        <v>220</v>
+      </c>
+      <c r="E27" t="s">
         <v>221</v>
-      </c>
-      <c r="E27" t="s">
-        <v>222</v>
       </c>
       <c r="G27" s="11">
         <v>0.85</v>
@@ -5550,13 +5556,13 @@
         <v>1</v>
       </c>
       <c r="B28" t="s">
+        <v>222</v>
+      </c>
+      <c r="C28" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="D28" t="s">
         <v>224</v>
-      </c>
-      <c r="D28" t="s">
-        <v>225</v>
       </c>
       <c r="G28" s="11">
         <v>3.6</v>
@@ -5571,13 +5577,13 @@
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E29" t="s">
         <v>80</v>
@@ -5595,13 +5601,13 @@
         <v>4</v>
       </c>
       <c r="B30" t="s">
+        <v>238</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="D30" t="s">
         <v>239</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>313</v>
-      </c>
-      <c r="D30" t="s">
-        <v>240</v>
       </c>
       <c r="G30" s="11">
         <v>0.84</v>
@@ -5616,13 +5622,13 @@
         <v>1</v>
       </c>
       <c r="B31" t="s">
+        <v>252</v>
+      </c>
+      <c r="C31" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="D31" t="s">
         <v>254</v>
-      </c>
-      <c r="D31" t="s">
-        <v>255</v>
       </c>
       <c r="G31" s="11">
         <v>2.14</v>
@@ -5637,13 +5643,13 @@
         <v>1</v>
       </c>
       <c r="B32" t="s">
+        <v>262</v>
+      </c>
+      <c r="C32" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="D32" t="s">
         <v>264</v>
-      </c>
-      <c r="D32" t="s">
-        <v>265</v>
       </c>
       <c r="G32" s="11">
         <v>2.46</v>
@@ -5658,13 +5664,13 @@
         <v>1</v>
       </c>
       <c r="B33" t="s">
+        <v>266</v>
+      </c>
+      <c r="C33" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="D33" t="s">
         <v>268</v>
-      </c>
-      <c r="D33" t="s">
-        <v>269</v>
       </c>
       <c r="G33" s="11">
         <v>1.69</v>
@@ -5679,16 +5685,16 @@
         <v>1</v>
       </c>
       <c r="B34" t="s">
+        <v>296</v>
+      </c>
+      <c r="C34" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="D34" t="s">
         <v>298</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>299</v>
-      </c>
-      <c r="E34" t="s">
-        <v>300</v>
       </c>
       <c r="G34" s="11">
         <v>0.45</v>
@@ -5703,13 +5709,13 @@
         <v>4</v>
       </c>
       <c r="B35" t="s">
+        <v>302</v>
+      </c>
+      <c r="C35" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="F35" t="s">
         <v>304</v>
-      </c>
-      <c r="F35" t="s">
-        <v>305</v>
       </c>
       <c r="G35" s="11">
         <v>0.02</v>
@@ -5790,7 +5796,7 @@
         <v>42</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D2" t="s">
         <v>44</v>
@@ -5813,7 +5819,7 @@
         <v>99</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D3" t="s">
         <v>101</v>
@@ -5833,16 +5839,16 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
+        <v>289</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="D4" t="s">
         <v>291</v>
       </c>
-      <c r="D4" t="s">
-        <v>292</v>
-      </c>
       <c r="E4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G4" s="5">
         <v>9.86</v>
@@ -5925,7 +5931,7 @@
         <v>42</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D2" t="s">
         <v>44</v>
@@ -5964,13 +5970,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E4" t="s">
         <v>80</v>
@@ -5988,13 +5994,13 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G5" s="5">
         <v>1.03</v>
@@ -6009,13 +6015,13 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
+        <v>283</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="D6" t="s">
         <v>285</v>
-      </c>
-      <c r="D6" t="s">
-        <v>286</v>
       </c>
       <c r="G6" s="5">
         <v>12.52</v>
@@ -6095,7 +6101,7 @@
         <v>42</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D2" t="s">
         <v>44</v>
@@ -6113,13 +6119,13 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G3" s="5">
         <v>0.1</v>
@@ -6134,13 +6140,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
+        <v>277</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="D4" t="s">
         <v>279</v>
-      </c>
-      <c r="D4" t="s">
-        <v>280</v>
       </c>
       <c r="G4" s="5">
         <v>1.42</v>
@@ -6219,7 +6225,7 @@
         <v>42</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D2" t="s">
         <v>44</v>
@@ -6237,13 +6243,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G3" s="5">
         <v>0.02</v>
@@ -6258,13 +6264,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E4" t="s">
         <v>80</v>
@@ -6347,7 +6353,7 @@
         <v>42</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D2" t="s">
         <v>44</v>
@@ -6365,13 +6371,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G3" s="5">
         <v>0.02</v>
@@ -6386,13 +6392,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E4" t="s">
         <v>80</v>
